--- a/PSU/PSU/bom/PSU_BOM.xlsx
+++ b/PSU/PSU/bom/PSU_BOM.xlsx
@@ -727,7 +727,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
